--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1045">
   <si>
     <t>anchor score</t>
   </si>
@@ -454,481 +454,481 @@
     <t>delayed</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>due</t>
   </si>
   <si>
     <t>safe</t>
@@ -3517,7 +3517,7 @@
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3575,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02807746344828873</v>
+        <v>0.02846456459701496</v>
       </c>
       <c r="C3">
         <v>184</v>
@@ -3596,16 +3596,16 @@
         <v>108</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K3">
-        <v>0.005304420027685297</v>
+        <v>0.007369135813113376</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3625,7 +3625,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02295628008039895</v>
+        <v>0.02327277599200328</v>
       </c>
       <c r="C4">
         <v>123</v>
@@ -3646,16 +3646,16 @@
         <v>393</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="K4">
-        <v>0.005129788779324558</v>
+        <v>0.006646419244470735</v>
       </c>
       <c r="L4">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="M4">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3675,7 +3675,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01075550585737313</v>
+        <v>0.01090379092878596</v>
       </c>
       <c r="C5">
         <v>27</v>
@@ -3696,28 +3696,28 @@
         <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="K5">
-        <v>0.004503537199334411</v>
+        <v>0.005304420027685297</v>
       </c>
       <c r="L5">
-        <v>582</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>605</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2502</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3725,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009926882401401193</v>
+        <v>0.0100637433250359</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3746,16 +3746,16 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="K6">
-        <v>0.003969464475828064</v>
+        <v>0.005129788779324558</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3764,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3775,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009708682516287368</v>
+        <v>0.009842535140175376</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3796,16 +3796,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>0.003601213706626418</v>
+        <v>0.004503537199334411</v>
       </c>
       <c r="L7">
-        <v>351</v>
+        <v>582</v>
       </c>
       <c r="M7">
-        <v>364</v>
+        <v>605</v>
       </c>
       <c r="N7">
         <v>0.96</v>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2837</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3825,7 +3825,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007463123616784158</v>
+        <v>0.007566016947246995</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3846,16 +3846,16 @@
         <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K8">
-        <v>0.003396486044479594</v>
+        <v>0.003969464475828064</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3875,7 +3875,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007463123616784158</v>
+        <v>0.007566016947246995</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3896,28 +3896,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="K9">
-        <v>0.00335480979073979</v>
+        <v>0.003601213706626418</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>190</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3925,7 +3925,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007170337238248751</v>
+        <v>0.007269193952523976</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -3946,16 +3946,16 @@
         <v>137</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K10">
-        <v>0.00335480979073979</v>
+        <v>0.003396486044479594</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>227</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3975,7 +3975,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007170337238248751</v>
+        <v>0.007269193952523976</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -3996,28 +3996,28 @@
         <v>65</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="K11">
-        <v>0.003104474970692107</v>
+        <v>0.00335480979073979</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006545592417180226</v>
+        <v>0.006635835837795866</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4046,16 +4046,16 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K12">
-        <v>0.003092981801148694</v>
+        <v>0.00335480979073979</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>81</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4075,7 +4075,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006545592417180226</v>
+        <v>0.006635835837795866</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4096,28 +4096,28 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="K13">
-        <v>0.003000633097470406</v>
+        <v>0.003104474970692107</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4125,7 +4125,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006545592417180226</v>
+        <v>0.006635835837795866</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -4146,28 +4146,28 @@
         <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="K14">
-        <v>0.002922762577025353</v>
+        <v>0.003092981801148694</v>
       </c>
       <c r="L14">
-        <v>388</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>412</v>
+        <v>34</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1731</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4175,7 +4175,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006545592417180226</v>
+        <v>0.006635835837795866</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -4196,16 +4196,16 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K15">
-        <v>0.002856517605535029</v>
+        <v>0.003000633097470406</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>252</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4225,7 +4225,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006209694202024971</v>
+        <v>0.006295306627921976</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -4246,28 +4246,28 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="K16">
-        <v>0.002856517605535029</v>
+        <v>0.002922762577025353</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>388</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>412</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>118</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4275,7 +4275,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006209694202024971</v>
+        <v>0.006295306627921976</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -4296,28 +4296,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="K17">
-        <v>0.002836442184944423</v>
+        <v>0.002856517605535029</v>
       </c>
       <c r="L17">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>698</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4325,7 +4325,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006209694202024971</v>
+        <v>0.006295306627921976</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4346,16 +4346,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K18">
-        <v>0.002806835248537129</v>
+        <v>0.002856517605535029</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4375,7 +4375,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00585455583912886</v>
+        <v>0.00593527200833633</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -4396,28 +4396,28 @@
         <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="K19">
-        <v>0.002806835248537129</v>
+        <v>0.002836442184944423</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>137</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4425,7 +4425,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00585455583912886</v>
+        <v>0.00593527200833633</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -4446,16 +4446,16 @@
         <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K20">
-        <v>0.002756257497791053</v>
+        <v>0.002806835248537129</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4475,7 +4475,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00585455583912886</v>
+        <v>0.00593527200833633</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4496,28 +4496,28 @@
         <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="K21">
-        <v>0.002676420517087505</v>
+        <v>0.002806835248537129</v>
       </c>
       <c r="L21">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>372</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4525,7 +4525,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00585455583912886</v>
+        <v>0.00593527200833633</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4546,16 +4546,16 @@
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K22">
-        <v>0.002598624489845759</v>
+        <v>0.002756257497791053</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4575,7 +4575,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005476435525439252</v>
+        <v>0.005551938588126058</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -4596,28 +4596,28 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>318</v>
+        <v>157</v>
       </c>
       <c r="K23">
-        <v>0.002543910478166447</v>
+        <v>0.002676420517087505</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4625,7 +4625,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005476435525439252</v>
+        <v>0.005551938588126058</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -4646,16 +4646,16 @@
         <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K24">
-        <v>0.002543910478166447</v>
+        <v>0.002598624489845759</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4675,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005476435525439252</v>
+        <v>0.005551938588126058</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -4696,16 +4696,16 @@
         <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K25">
-        <v>0.002487993529457815</v>
+        <v>0.002543910478166447</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4725,7 +4725,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005476435525439252</v>
+        <v>0.005551938588126058</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -4746,28 +4746,28 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="K26">
-        <v>0.002486995681538536</v>
+        <v>0.002543910478166447</v>
       </c>
       <c r="L26">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4775,7 +4775,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005476435525439252</v>
+        <v>0.005551938588126058</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -4796,28 +4796,28 @@
         <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="K27">
-        <v>0.002455823507787661</v>
+        <v>0.002487993529457815</v>
       </c>
       <c r="L27">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>719</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4825,7 +4825,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005476435525439252</v>
+        <v>0.005551938588126058</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -4846,28 +4846,28 @@
         <v>9</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="K28">
-        <v>0.002430790629470762</v>
+        <v>0.002486995681538536</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4875,7 +4875,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -4896,28 +4896,28 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="K29">
-        <v>0.002430790629470762</v>
+        <v>0.002455823507787661</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4925,7 +4925,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -4946,16 +4946,16 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K30">
-        <v>0.002372208752623128</v>
+        <v>0.002430790629470762</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4975,7 +4975,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -4996,16 +4996,16 @@
         <v>19</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K31">
-        <v>0.002372208752623128</v>
+        <v>0.002430790629470762</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>152</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5025,7 +5025,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -5046,28 +5046,28 @@
         <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="K32">
-        <v>0.002335098540285436</v>
+        <v>0.002372208752623128</v>
       </c>
       <c r="L32">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5075,7 +5075,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -5096,28 +5096,28 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="K33">
-        <v>0.002317220204129167</v>
+        <v>0.002372208752623128</v>
       </c>
       <c r="L33">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5125,7 +5125,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5146,28 +5146,28 @@
         <v>32</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>325</v>
+        <v>159</v>
       </c>
       <c r="K34">
-        <v>0.002187068405678823</v>
+        <v>0.002335098540285436</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5175,7 +5175,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -5196,28 +5196,28 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="K35">
-        <v>0.002187068405678823</v>
+        <v>0.002317220204129167</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5225,7 +5225,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5246,7 +5246,7 @@
         <v>160</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K36">
         <v>0.002187068405678823</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>283</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5275,7 +5275,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5296,28 +5296,28 @@
         <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="K37">
-        <v>0.002176476353872325</v>
+        <v>0.002187068405678823</v>
       </c>
       <c r="L37">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5325,7 +5325,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5346,16 +5346,16 @@
         <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K38">
-        <v>0.002121768011074119</v>
+        <v>0.002187068405678823</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>148</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5375,7 +5375,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005070194084560113</v>
+        <v>0.005140096337589946</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5396,28 +5396,28 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>329</v>
+        <v>154</v>
       </c>
       <c r="K39">
-        <v>0.002121768011074119</v>
+        <v>0.002176476353872325</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5425,7 +5425,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -5446,28 +5446,28 @@
         <v>22</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="K40">
-        <v>0.002066390964636514</v>
+        <v>0.002121768011074119</v>
       </c>
       <c r="L40">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5475,7 +5475,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -5496,16 +5496,16 @@
         <v>75</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K41">
-        <v>0.002054393042851424</v>
+        <v>0.002121768011074119</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5525,7 +5525,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5546,7 +5546,7 @@
         <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K42">
         <v>0.002054393042851424</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5575,7 +5575,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5596,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K43">
         <v>0.002054393042851424</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5625,7 +5625,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5646,7 +5646,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K44">
         <v>0.002054393042851424</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5675,7 +5675,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5696,16 +5696,16 @@
         <v>27</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K45">
-        <v>0.001984732237914032</v>
+        <v>0.002054393042851424</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5725,7 +5725,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5746,7 +5746,7 @@
         <v>6</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K46">
         <v>0.001984732237914032</v>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5775,7 +5775,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5796,28 +5796,28 @@
         <v>32</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>155</v>
+        <v>335</v>
       </c>
       <c r="K47">
-        <v>0.001927386204916626</v>
+        <v>0.001984732237914032</v>
       </c>
       <c r="L47">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>459</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5825,7 +5825,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004628432785071383</v>
+        <v>0.004692244519746171</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5846,28 +5846,28 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>336</v>
+        <v>153</v>
       </c>
       <c r="K48">
-        <v>0.001912535839641745</v>
+        <v>0.001927386204916626</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>65</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5875,7 +5875,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5896,7 +5896,7 @@
         <v>248</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K49">
         <v>0.001912535839641745</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5925,7 +5925,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -5946,28 +5946,28 @@
         <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
       <c r="K50">
-        <v>0.001897933150690592</v>
+        <v>0.001912535839641745</v>
       </c>
       <c r="L50">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>748</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5975,7 +5975,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -5996,28 +5996,28 @@
         <v>369</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K51">
-        <v>0.001892515096939382</v>
+        <v>0.001897933150690592</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="M51">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>251</v>
+        <v>748</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -6025,7 +6025,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -6046,28 +6046,28 @@
         <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K52">
-        <v>0.001874451058423588</v>
+        <v>0.001892515096939382</v>
       </c>
       <c r="L52">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="M52">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>133</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -6075,7 +6075,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6125,7 +6125,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6175,7 +6175,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6225,7 +6225,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6275,7 +6275,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6325,7 +6325,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004139796134683314</v>
+        <v>0.004196871085281317</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6346,7 +6346,7 @@
         <v>15</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K58">
         <v>0.001811999849531817</v>
@@ -6375,7 +6375,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -6396,7 +6396,7 @@
         <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K59">
         <v>0.00178067071847775</v>
@@ -6425,7 +6425,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6475,7 +6475,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6525,7 +6525,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6575,7 +6575,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6625,7 +6625,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6675,7 +6675,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6725,7 +6725,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6746,7 +6746,7 @@
         <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K66">
         <v>0.001723614291589766</v>
@@ -6775,7 +6775,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6825,7 +6825,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6875,7 +6875,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6925,7 +6925,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6975,7 +6975,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003585168619124376</v>
+        <v>0.003634596976261988</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7025,7 +7025,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003493552169282003</v>
+        <v>0.00354171741969199</v>
       </c>
       <c r="C72">
         <v>23</v>
@@ -7075,7 +7075,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7125,7 +7125,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7175,7 +7175,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7225,7 +7225,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7246,7 +7246,7 @@
         <v>7</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K76">
         <v>0.001606092264149769</v>
@@ -7275,7 +7275,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7325,7 +7325,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7375,7 +7375,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7425,7 +7425,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7475,7 +7475,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7525,7 +7525,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7575,7 +7575,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7625,7 +7625,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7675,7 +7675,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7725,7 +7725,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7775,7 +7775,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7796,7 +7796,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K87">
         <v>0.001563307658204338</v>
@@ -7825,7 +7825,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7846,7 +7846,7 @@
         <v>7</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K88">
         <v>0.001546154959056644</v>
@@ -7875,7 +7875,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7896,7 +7896,7 @@
         <v>13</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K89">
         <v>0.001515918419710602</v>
@@ -7925,7 +7925,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -7975,7 +7975,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8025,7 +8025,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8075,7 +8075,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8125,7 +8125,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00292727791956443</v>
+        <v>0.002967636004168165</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8225,7 +8225,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002836575509661177</v>
+        <v>0.002875683089313478</v>
       </c>
       <c r="C96">
         <v>24</v>
@@ -8275,7 +8275,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002704444449549535</v>
+        <v>0.002741730351640193</v>
       </c>
       <c r="C97">
         <v>13</v>
@@ -8325,7 +8325,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8375,7 +8375,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8425,7 +8425,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8446,7 +8446,7 @@
         <v>18</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K100">
         <v>0.001470634166874906</v>
@@ -8475,7 +8475,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8525,7 +8525,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8575,7 +8575,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8625,7 +8625,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8675,7 +8675,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8725,7 +8725,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8775,7 +8775,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8825,7 +8825,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8875,7 +8875,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8946,7 +8946,7 @@
         <v>10</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K110">
         <v>0.001317300730708399</v>
@@ -8975,7 +8975,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9025,7 +9025,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9075,7 +9075,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9125,7 +9125,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9175,7 +9175,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9225,7 +9225,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9275,7 +9275,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9325,7 +9325,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9375,7 +9375,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9425,7 +9425,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9475,7 +9475,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9525,7 +9525,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9575,7 +9575,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9625,7 +9625,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9675,7 +9675,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9725,7 +9725,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9825,7 +9825,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9875,7 +9875,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>18</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K129">
         <v>0.001267380610095931</v>
@@ -9925,7 +9925,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9975,7 +9975,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10025,7 +10025,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10175,7 +10175,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10225,7 +10225,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10275,7 +10275,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10325,7 +10325,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10375,7 +10375,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10425,7 +10425,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002069898067341657</v>
+        <v>0.002098435542640659</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10475,25 +10475,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001970019485489063</v>
+        <v>0.001994024490344072</v>
       </c>
       <c r="C141">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D141">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E141">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>133</v>
+        <v>698</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>416</v>
@@ -10525,25 +10525,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001966906943256022</v>
+        <v>0.001943054022229412</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D142">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>417</v>
@@ -10575,13 +10575,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001916629643192151</v>
+        <v>0.001815327320308013</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E143">
         <v>0.96</v>
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>719</v>
+        <v>136</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>418</v>
@@ -10625,13 +10625,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001820198341836498</v>
+        <v>0.001669821503914753</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E144">
         <v>0.95</v>
@@ -10643,7 +10643,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>419</v>
@@ -10675,13 +10675,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001790639948449213</v>
+        <v>0.001572429618013225</v>
       </c>
       <c r="C145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D145">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="E145">
         <v>0.96</v>
@@ -10693,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>136</v>
+        <v>748</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>420</v>
@@ -10725,25 +10725,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001647112924616795</v>
+        <v>0.001549175788033762</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E146">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F146">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>421</v>
@@ -10775,25 +10775,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001551045510438015</v>
+        <v>0.001519740119510971</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D147">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E147">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F147">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>748</v>
+        <v>534</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>422</v>
@@ -10825,25 +10825,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001528107918715655</v>
+        <v>0.001495339479943824</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E148">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F148">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>36</v>
+        <v>459</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>423</v>
@@ -10875,25 +10875,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0014990725577774</v>
+        <v>0.001462364508877105</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E149">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>534</v>
+        <v>13</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>424</v>
@@ -10925,25 +10925,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001475003752395662</v>
+        <v>0.001426340645524458</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E150">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>459</v>
+        <v>1062</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>425</v>
@@ -10975,25 +10975,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001442477221323016</v>
+        <v>0.001418254835832318</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E151">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F151">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>426</v>
@@ -11025,25 +11025,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001406943261086147</v>
+        <v>0.001414874972256177</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1062</v>
+        <v>372</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>427</v>
@@ -11075,25 +11075,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001398967413596645</v>
+        <v>0.001380798590797654</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>98</v>
+        <v>217</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>428</v>
@@ -11125,13 +11125,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001395633514154907</v>
+        <v>0.001340343569196705</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E154">
         <v>0.98</v>
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>372</v>
+        <v>15</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>429</v>
@@ -11175,25 +11175,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001362020551216701</v>
+        <v>0.001309118104751338</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>430</v>
@@ -11225,25 +11225,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0013221156938482</v>
+        <v>0.001236925325169004</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D156">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E156">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>431</v>
@@ -11275,25 +11275,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001291314877147404</v>
+        <v>0.001217456769623</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D157">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E157">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>432</v>
@@ -11325,25 +11325,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001220103876429483</v>
+        <v>0.00119286956362417</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E158">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F158">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>433</v>
@@ -11375,25 +11375,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001200900081659644</v>
+        <v>0.001141162182213854</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>434</v>
@@ -11425,28 +11425,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.00117664724703873</v>
+        <v>0.001123785460296342</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E160">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F160">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K160">
         <v>0.001135678731191557</v>
@@ -11475,28 +11475,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001125643055261734</v>
+        <v>0.001045995085425234</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E161">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F161">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K161">
         <v>0.001101967582136695</v>
@@ -11525,28 +11525,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001108502646427193</v>
+        <v>0.001000467687413471</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E162">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F162">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K162">
         <v>0.001100199164747819</v>
@@ -11575,28 +11575,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001031770174387158</v>
+        <v>0.0009940310111364759</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D163">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E163">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F163">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K163">
         <v>0.001090175398454256</v>
@@ -11625,13 +11625,13 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0009868619219101458</v>
+        <v>0.0009768765238127861</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E164">
         <v>0.98</v>
@@ -11643,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K164">
         <v>0.001080776906000771</v>
@@ -11675,28 +11675,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0009805127806021934</v>
+        <v>0.0009643014320743123</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E165">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F165">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K165">
         <v>0.001067923620852272</v>
@@ -11725,25 +11725,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.000963591584103177</v>
+        <v>0.0009195879115986566</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E166">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>435</v>
@@ -11775,25 +11775,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0009511875061330927</v>
+        <v>0.0009195303437894823</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>436</v>
@@ -11825,13 +11825,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0009070820629417647</v>
+        <v>0.0009071583521756961</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E168">
         <v>0.95</v>
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>437</v>
@@ -11875,25 +11875,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0009070252780205557</v>
+        <v>0.0008944061228133359</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>438</v>
@@ -11925,25 +11925,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0008948215381342605</v>
+        <v>0.0008474825482193282</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E170">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F170">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>439</v>
@@ -11975,25 +11975,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.000882242731506619</v>
+        <v>0.0008252161973598972</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E171">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F171">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>440</v>
@@ -12025,25 +12025,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0008359572896184805</v>
+        <v>0.0008252161973598972</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E172">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F172">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>441</v>
@@ -12075,25 +12075,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0008139937478874396</v>
+        <v>0.0008069235174770549</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E173">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F173">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>442</v>
@@ -12125,25 +12125,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0008139937478874396</v>
+        <v>0.0007959135871186607</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E174">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F174">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>511</v>
+        <v>66</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>443</v>
@@ -12175,13 +12175,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0007959498375711154</v>
+        <v>0.0007845107898091107</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E175">
         <v>0.97</v>
@@ -12193,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>444</v>
@@ -12225,13 +12225,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0007850896357172487</v>
+        <v>0.0007726889292221051</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E176">
         <v>0.97</v>
@@ -12243,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>445</v>
@@ -12275,25 +12275,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.000773841909669097</v>
+        <v>0.0007604191820257411</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E177">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F177">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>446</v>
@@ -12325,25 +12325,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0007621808193548183</v>
+        <v>0.0007476697399719118</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E178">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F178">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>447</v>
@@ -12375,13 +12375,13 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.00075007793342268</v>
+        <v>0.0007205870157207573</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E179">
         <v>0.96</v>
@@ -12393,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>448</v>
@@ -12425,25 +12425,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0007375018761978311</v>
+        <v>0.0007091308561704303</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
         <v>27</v>
       </c>
       <c r="E180">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F180">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>449</v>
@@ -12475,13 +12475,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0007107874608885727</v>
+        <v>0.0006911085826546383</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E181">
         <v>0.96</v>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>450</v>
@@ -12525,25 +12525,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006994870982943806</v>
+        <v>0.0006753448877458279</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E182">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>451</v>
@@ -12575,25 +12575,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0006817099169793439</v>
+        <v>0.0006705873737319716</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E183">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F183">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>452</v>
@@ -12625,25 +12625,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0006661605989455626</v>
+        <v>0.0006502145700640579</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F184">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>453</v>
@@ -12675,25 +12675,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006614677842926808</v>
+        <v>0.0006414578224334488</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E185">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F185">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>454</v>
@@ -12725,25 +12725,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0006413720386375725</v>
+        <v>0.0006414578224334488</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>455</v>
@@ -12775,7 +12775,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006327343775665123</v>
+        <v>0.0006414578224334488</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12793,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>456</v>
@@ -12825,7 +12825,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006327343775665123</v>
+        <v>0.0006414578224334488</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>457</v>
@@ -12875,13 +12875,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006327343775665123</v>
+        <v>0.0006231842352786013</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E189">
         <v>0.95</v>
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>458</v>
@@ -12925,25 +12925,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006327343775665123</v>
+        <v>0.0006069976618513727</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E190">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F190">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>459</v>
@@ -12975,25 +12975,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006147093003284381</v>
+        <v>0.0006069976618513727</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E191">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F191">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>460</v>
@@ -13025,7 +13025,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005987428546725746</v>
+        <v>0.0006069976618513727</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -13043,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>461</v>
@@ -13075,25 +13075,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0005987428546725746</v>
+        <v>0.0006039055441412844</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E193">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>462</v>
@@ -13125,25 +13125,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0005987428546725746</v>
+        <v>0.0006039055441412844</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>463</v>
@@ -13175,13 +13175,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.000595692787924253</v>
+        <v>0.0005618927301481708</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E195">
         <v>0.9399999999999999</v>
@@ -13193,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>464</v>
@@ -13225,13 +13225,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.000595692787924253</v>
+        <v>0.0005618927301481708</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E196">
         <v>0.9399999999999999</v>
@@ -13243,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>465</v>
@@ -13275,7 +13275,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005542513232135964</v>
+        <v>0.0005618927301481708</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>466</v>
@@ -13325,25 +13325,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005542513232135964</v>
+        <v>0.0005540723938670912</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E198">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F198">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>467</v>
@@ -13375,25 +13375,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005542513232135964</v>
+        <v>0.0005294750586494686</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E199">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F199">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>468</v>
@@ -13425,25 +13425,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005465373388546589</v>
+        <v>0.0005143456721116044</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>469</v>
@@ -13475,25 +13475,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005222745127663044</v>
+        <v>0.0005143456721116044</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E201">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F201">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>470</v>
@@ -13525,7 +13525,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005073508768868903</v>
+        <v>0.0005143456721116044</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>471</v>
@@ -13575,7 +13575,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0005073508768868903</v>
+        <v>0.0005143456721116044</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13593,7 +13593,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>472</v>
@@ -13625,25 +13625,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0005073508768868903</v>
+        <v>0.0005065958958338537</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D204">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>0.93</v>
+        <v>0.17</v>
       </c>
       <c r="F204">
-        <v>0.06999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>473</v>
@@ -13675,25 +13675,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005073508768868903</v>
+        <v>0.0004969188403919049</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D205">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E205">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="F205">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>14</v>
+        <v>917</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>474</v>
@@ -13725,25 +13725,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004997064929572032</v>
+        <v>0.0004880520916650525</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.83</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>475</v>
@@ -13775,25 +13775,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0004901610397136685</v>
+        <v>0.0004880520916650525</v>
       </c>
       <c r="C207">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E207">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="F207">
-        <v>0.22</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>917</v>
+        <v>115</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>476</v>
@@ -13825,7 +13825,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004814148734958488</v>
+        <v>0.0004880520916650525</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>477</v>
@@ -13875,13 +13875,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0004814148734958488</v>
+        <v>0.0004597711317185908</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E209">
         <v>0.92</v>
@@ -13893,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>478</v>
@@ -13925,13 +13925,13 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004814148734958488</v>
+        <v>0.0004597711317185908</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E210">
         <v>0.92</v>
@@ -13943,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>479</v>
@@ -13975,7 +13975,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004535185177840678</v>
+        <v>0.0004597711317185908</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>480</v>
@@ -14025,28 +14025,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0004535185177840678</v>
+        <v>0.0004220094903876348</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E212">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F212">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K212">
         <v>0.001033536879558282</v>
@@ -14075,28 +14075,28 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0004535185177840678</v>
+        <v>0.0003960206913087624</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E213">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F213">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K213">
         <v>0.001026485530497876</v>
@@ -14125,28 +14125,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0004162704123158221</v>
+        <v>0.0003960206913087624</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F214">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K214">
         <v>0.0009995445982470346</v>
@@ -14175,7 +14175,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003906350454471337</v>
+        <v>0.0003960206913087624</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14193,10 +14193,10 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K215">
         <v>0.0009987969748573296</v>
@@ -14225,28 +14225,28 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003906350454471337</v>
+        <v>0.0003597608091285375</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E216">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F216">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K216">
         <v>0.0009724401918671581</v>
@@ -14275,28 +14275,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003906350454471337</v>
+        <v>0.0003597608091285375</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E217">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K217">
         <v>0.0009636931024583132</v>
@@ -14325,25 +14325,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003548682760983664</v>
+        <v>0.000320399376825677</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E218">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F218">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>481</v>
@@ -14375,25 +14375,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003548682760983664</v>
+        <v>0.0003198938457497055</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>482</v>
@@ -14425,25 +14425,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003160421358639307</v>
+        <v>0.0003198938457497055</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>483</v>
@@ -14475,7 +14475,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.000315543479709919</v>
+        <v>0.0003198938457497055</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14493,7 +14493,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>484</v>
@@ -14525,7 +14525,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.000315543479709919</v>
+        <v>0.0003198938457497055</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14543,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>485</v>
@@ -14575,7 +14575,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.000315543479709919</v>
+        <v>0.0003198938457497055</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14593,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>486</v>
@@ -14625,7 +14625,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.000315543479709919</v>
+        <v>0.0003198938457497055</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14643,7 +14643,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>487</v>
@@ -14675,7 +14675,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.000315543479709919</v>
+        <v>0.0003198938457497055</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>488</v>
@@ -14725,25 +14725,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.000315543479709919</v>
+        <v>0.0002757567088614589</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F226">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>489</v>
@@ -14775,25 +14775,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.000315543479709919</v>
+        <v>0.0002757567088614589</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E227">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>490</v>
@@ -14825,7 +14825,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002720065816320253</v>
+        <v>0.0002757567088614589</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>491</v>
@@ -14875,7 +14875,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002720065816320253</v>
+        <v>0.0002757567088614589</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14893,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>492</v>
@@ -14925,7 +14925,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002720065816320253</v>
+        <v>0.0002757567088614589</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14943,7 +14943,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>493</v>
@@ -14975,25 +14975,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002720065816320253</v>
+        <v>0.0002424682245504276</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E231">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F231">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>494</v>
@@ -15025,25 +15025,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002720065816320253</v>
+        <v>0.0002265565720413801</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>495</v>
@@ -15075,25 +15075,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002391708009087211</v>
+        <v>0.0002265565720413801</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F233">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>496</v>
@@ -15125,7 +15125,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002234755374100655</v>
+        <v>0.0002265565720413801</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15143,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>497</v>
@@ -15175,7 +15175,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002234755374100655</v>
+        <v>0.0002265565720413801</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>498</v>
@@ -15225,7 +15225,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002234755374100655</v>
+        <v>0.0002265565720413801</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15243,7 +15243,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>499</v>
@@ -15275,25 +15275,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002234755374100655</v>
+        <v>0.0002001103981476332</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E237">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F237">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>500</v>
@@ -15325,25 +15325,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002234755374100655</v>
+        <v>0.0001714509258018699</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>501</v>
@@ -15375,25 +15375,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001973890157519533</v>
+        <v>0.0001714509258018699</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F239">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>502</v>
@@ -15425,7 +15425,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001691192951843743</v>
+        <v>0.0001714509258018699</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15443,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>503</v>
@@ -15475,7 +15475,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001691192951843743</v>
+        <v>0.0001714509258018699</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15493,7 +15493,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>504</v>
@@ -15525,7 +15525,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001691192951843743</v>
+        <v>0.0001714509258018699</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15543,7 +15543,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>505</v>
@@ -15575,7 +15575,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001691192951843743</v>
+        <v>0.0001714509258018699</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15593,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>506</v>
@@ -15625,25 +15625,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001691192951843743</v>
+        <v>0.0001555892005200877</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>507</v>
@@ -15675,25 +15675,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001691192951843743</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F245">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>508</v>
@@ -15725,13 +15725,13 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001534732799323884</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E246">
         <v>0.75</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>509</v>
@@ -15775,7 +15775,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15793,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>510</v>
@@ -15825,7 +15825,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15843,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>511</v>
@@ -15875,7 +15875,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>512</v>
@@ -15925,7 +15925,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>513</v>
@@ -15975,7 +15975,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15993,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>514</v>
@@ -16025,7 +16025,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>515</v>
@@ -16075,7 +16075,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16093,7 +16093,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>516</v>
@@ -16125,7 +16125,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16143,7 +16143,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>517</v>
@@ -16175,7 +16175,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16193,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>289</v>
+        <v>59</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>518</v>
@@ -16225,7 +16225,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001085219969711335</v>
+        <v>0.000110018178767148</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16243,7 +16243,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>519</v>
@@ -16275,25 +16275,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001085219969711335</v>
+        <v>0.0001094515332996441</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E257">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F257">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>520</v>
@@ -16325,25 +16325,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001085219969711335</v>
+        <v>0.0001094515332996441</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E258">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F258">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>521</v>
@@ -16375,25 +16375,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001079630575449655</v>
+        <v>6.332910200837869E-05</v>
       </c>
       <c r="C259">
         <v>2</v>
       </c>
       <c r="D259">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E259">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F259">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>522</v>
@@ -16425,25 +16425,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001079630575449655</v>
+        <v>6.33291020083777E-05</v>
       </c>
       <c r="C260">
         <v>2</v>
       </c>
       <c r="D260">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F260">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>523</v>
@@ -16475,25 +16475,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>6.246786388714586E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261">
+        <v>0.67</v>
+      </c>
+      <c r="F261">
         <v>0.33</v>
       </c>
-      <c r="F261">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>524</v>
@@ -16525,13 +16525,13 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>6.246786388714488E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E262">
         <v>0.67</v>
@@ -16543,7 +16543,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>525</v>
@@ -16575,7 +16575,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16593,7 +16593,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>526</v>
@@ -16625,7 +16625,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16643,7 +16643,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>527</v>
@@ -16675,7 +16675,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16693,7 +16693,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>528</v>
@@ -16725,7 +16725,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>529</v>
@@ -16775,7 +16775,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16793,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>530</v>
@@ -16825,7 +16825,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16843,7 +16843,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>531</v>
@@ -16875,7 +16875,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>532</v>
@@ -16925,7 +16925,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16943,7 +16943,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>533</v>
@@ -16975,7 +16975,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16993,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>534</v>
@@ -17025,7 +17025,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>535</v>
@@ -17075,7 +17075,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17093,7 +17093,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>536</v>
@@ -17125,7 +17125,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>4.417145016083838E-05</v>
+        <v>4.478043747657847E-05</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>537</v>
@@ -17175,25 +17175,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>4.417145016083838E-05</v>
+        <v>2.188343021915659E-05</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E275">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F275">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>538</v>
@@ -17225,25 +17225,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>4.417145016083838E-05</v>
+        <v>1.352646583305798E-05</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E276">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F276">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>539</v>
@@ -17275,25 +17275,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>2.158582858372549E-05</v>
+        <v>1.352646583305798E-05</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D277">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F277">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>540</v>
@@ -17325,25 +17325,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>1.33425139428284E-05</v>
+        <v>0</v>
       </c>
       <c r="C278">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E278">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F278">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>541</v>
@@ -17375,25 +17375,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>1.33425139428284E-05</v>
+        <v>0</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F279">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>542</v>
@@ -17443,7 +17443,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>543</v>
@@ -17493,7 +17493,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>544</v>
@@ -17578,10 +17578,10 @@
         <v>0</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E283">
         <v>0.5</v>
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>546</v>
@@ -17643,7 +17643,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>547</v>
@@ -17678,10 +17678,10 @@
         <v>0</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E285">
         <v>0.5</v>
@@ -17693,7 +17693,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>548</v>
@@ -17743,7 +17743,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>549</v>
@@ -17793,10 +17793,10 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K287">
         <v>0.000892348146067162</v>
@@ -17843,10 +17843,10 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K288">
         <v>0.0008592897646023298</v>
@@ -17893,10 +17893,10 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K289">
         <v>0.0008343917619576308</v>
@@ -17943,10 +17943,10 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K290">
         <v>0.0008343917619576308</v>
@@ -17993,10 +17993,10 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K291">
         <v>0.0008194074332317717</v>
@@ -18043,10 +18043,10 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K292">
         <v>0.0007823075769712399</v>
@@ -18093,7 +18093,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>550</v>
@@ -18128,10 +18128,10 @@
         <v>0</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E294">
         <v>0.5</v>
@@ -18143,7 +18143,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>551</v>
@@ -18193,7 +18193,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>552</v>
@@ -18228,10 +18228,10 @@
         <v>0</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E296">
         <v>0.5</v>
@@ -18243,7 +18243,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>553</v>
@@ -18293,7 +18293,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>554</v>
@@ -18321,30 +18321,6 @@
       </c>
     </row>
     <row r="298" spans="1:17">
-      <c r="A298" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-      <c r="D298">
-        <v>2</v>
-      </c>
-      <c r="E298">
-        <v>0.5</v>
-      </c>
-      <c r="F298">
-        <v>0.5</v>
-      </c>
-      <c r="G298" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298">
-        <v>43</v>
-      </c>
       <c r="J298" s="1" t="s">
         <v>555</v>
       </c>
@@ -18371,30 +18347,6 @@
       </c>
     </row>
     <row r="299" spans="1:17">
-      <c r="A299" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299">
-        <v>2</v>
-      </c>
-      <c r="E299">
-        <v>0.5</v>
-      </c>
-      <c r="F299">
-        <v>0.5</v>
-      </c>
-      <c r="G299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299">
-        <v>234</v>
-      </c>
       <c r="J299" s="1" t="s">
         <v>556</v>
       </c>
@@ -21724,7 +21676,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K427">
         <v>0.0007294897462592298</v>
@@ -21750,7 +21702,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K428">
         <v>0.0007067847635188622</v>
@@ -21776,7 +21728,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K429">
         <v>0.0007067847635188622</v>
@@ -21802,7 +21754,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K430">
         <v>0.0007067847635188622</v>
@@ -21828,7 +21780,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K431">
         <v>0.0007067847635188622</v>
@@ -21854,7 +21806,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K432">
         <v>0.0006683361976819258</v>
@@ -21880,7 +21832,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K433">
         <v>0.0006337583029786737</v>
@@ -21906,7 +21858,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K434">
         <v>0.0006294130597614725</v>
@@ -21932,7 +21884,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K435">
         <v>0.0006294130597614725</v>
@@ -21958,7 +21910,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K436">
         <v>0.0005748394493687426</v>
@@ -21984,7 +21936,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K437">
         <v>0.0005500995823739096</v>
@@ -22010,7 +21962,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K438">
         <v>0.0005500995823739096</v>
@@ -22036,7 +21988,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K439">
         <v>0.0005500995823739096</v>
@@ -22062,7 +22014,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K440">
         <v>0.0005451240114375227</v>
@@ -31474,7 +31426,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K802">
         <v>0.0004852094947773806</v>
@@ -31500,7 +31452,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K803">
         <v>0.0004852094947773806</v>
@@ -31526,7 +31478,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K804">
         <v>0.0004852094947773806</v>
@@ -31552,7 +31504,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K805">
         <v>0.0004687799610180905</v>
@@ -31578,7 +31530,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K806">
         <v>0.0004687799610180905</v>
@@ -31604,7 +31556,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K807">
         <v>0.0004687799610180905</v>
@@ -31630,7 +31582,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K808">
         <v>0.0004687799610180905</v>
@@ -31656,7 +31608,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K809">
         <v>0.0004273651202303532</v>
@@ -31682,7 +31634,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K810">
         <v>0.0004273651202303532</v>
@@ -31708,7 +31660,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K811">
         <v>0.0004273651202303532</v>
@@ -31734,7 +31686,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K812">
         <v>0.0003854608850750854</v>
@@ -31760,7 +31712,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K813">
         <v>0.0003854608850750854</v>
@@ -31786,7 +31738,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K814">
         <v>0.0003854608850750854</v>
@@ -31812,7 +31764,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K815">
         <v>0.0003705593747688943</v>
@@ -31838,7 +31790,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K816">
         <v>0.0003455748674824674</v>
@@ -31864,7 +31816,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K817">
         <v>0.0003003180288843923</v>
@@ -31890,7 +31842,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K818">
         <v>0.0003003180288843923</v>
@@ -31916,7 +31868,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K819">
         <v>0.0003003180288843923</v>
@@ -31942,7 +31894,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K820">
         <v>0.0002719701047910468</v>
@@ -31968,7 +31920,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K821">
         <v>0.0002572178580442299</v>
@@ -31994,7 +31946,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K822">
         <v>0.0002572178580442299</v>
@@ -32020,7 +31972,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K823">
         <v>0.0002395308130949709</v>
@@ -32046,7 +31998,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K824">
         <v>0.000213942554773561</v>
@@ -32072,7 +32024,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K825">
         <v>0.000213942554773561</v>
@@ -32098,7 +32050,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K826">
         <v>0.000213942554773561</v>
@@ -32124,7 +32076,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K827">
         <v>0.000213942554773561</v>
@@ -32150,7 +32102,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K828">
         <v>0.000213942554773561</v>
@@ -32176,7 +32128,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K829">
         <v>0.000213942554773561</v>
@@ -32202,7 +32154,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K830">
         <v>0.000213942554773561</v>
@@ -32228,7 +32180,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K831">
         <v>0.0001811002031266632</v>
@@ -32254,7 +32206,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K832">
         <v>0.0001707434234517644</v>
@@ -32280,7 +32232,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K833">
         <v>0.0001707434234517644</v>
@@ -32306,7 +32258,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K834">
         <v>0.0001707434234517644</v>
@@ -32332,7 +32284,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K835">
         <v>0.0001707434234517644</v>
@@ -32358,7 +32310,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K836">
         <v>0.0001707434234517644</v>
@@ -32384,7 +32336,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K837">
         <v>0.0001280571817051247</v>
@@ -32410,7 +32362,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K838">
         <v>0.0001280571817051247</v>
@@ -32436,7 +32388,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K839">
         <v>0.0001280571817051247</v>
@@ -32462,7 +32414,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K840">
         <v>0.0001280571817051247</v>
@@ -32488,7 +32440,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K841">
         <v>0.0001280571817051247</v>
@@ -32514,7 +32466,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K842">
         <v>0.0001225821122686567</v>
@@ -32540,7 +32492,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K843">
         <v>9.463372838358173E-05</v>
@@ -32566,7 +32518,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K844">
         <v>8.667864283733783E-05</v>
@@ -32592,7 +32544,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K845">
         <v>8.667864283733783E-05</v>
@@ -32618,7 +32570,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K846">
         <v>8.667864283733783E-05</v>
@@ -32644,7 +32596,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K847">
         <v>8.667864283733783E-05</v>
@@ -32670,7 +32622,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K848">
         <v>8.667864283733783E-05</v>
@@ -32696,7 +32648,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K849">
         <v>8.667864283733783E-05</v>
@@ -32722,7 +32674,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K850">
         <v>6.812120931595746E-05</v>
@@ -32748,7 +32700,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K851">
         <v>5.726891265994031E-05</v>
@@ -32774,7 +32726,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K852">
         <v>4.816896904994174E-05</v>
@@ -32800,7 +32752,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K853">
         <v>4.816896904994174E-05</v>
@@ -32826,7 +32778,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K854">
         <v>4.816896904994174E-05</v>
@@ -32852,7 +32804,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K855">
         <v>4.816896904994174E-05</v>
@@ -32878,7 +32830,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K856">
         <v>4.816896904994174E-05</v>
@@ -32904,7 +32856,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K857">
         <v>4.816896904994174E-05</v>
@@ -32930,7 +32882,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K858">
         <v>4.816896904994174E-05</v>
@@ -32956,7 +32908,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K859">
         <v>4.816896904994174E-05</v>
@@ -32982,7 +32934,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K860">
         <v>4.816896904994174E-05</v>
@@ -33008,7 +32960,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K861">
         <v>4.816896904994174E-05</v>
@@ -33034,7 +32986,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K862">
         <v>4.816896904994174E-05</v>
@@ -33060,7 +33012,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K863">
         <v>4.816896904994174E-05</v>
@@ -33086,7 +33038,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K864">
         <v>4.374557474649182E-05</v>
@@ -33112,7 +33064,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K865">
         <v>4.374557474649182E-05</v>
@@ -33138,7 +33090,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K866">
         <v>2.263917519242577E-05</v>
@@ -33164,7 +33116,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K867">
         <v>1.600831429903461E-05</v>
@@ -33190,7 +33142,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K868">
         <v>1.600831429903461E-05</v>
@@ -33216,7 +33168,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K869">
         <v>1.600831429903461E-05</v>
@@ -33242,7 +33194,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K870">
         <v>1.600831429903461E-05</v>
@@ -33268,7 +33220,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K871">
         <v>1.600831429903461E-05</v>
@@ -33294,7 +33246,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K872">
         <v>1.600831429903461E-05</v>
@@ -33320,7 +33272,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K873">
         <v>1.600831429903461E-05</v>
@@ -33346,7 +33298,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K874">
         <v>1.600831429903461E-05</v>
@@ -33372,7 +33324,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K875">
         <v>1.600831429903461E-05</v>
@@ -33398,7 +33350,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K876">
         <v>1.600831429903461E-05</v>
@@ -33424,7 +33376,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K877">
         <v>1.600831429903461E-05</v>
@@ -33450,7 +33402,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K878">
         <v>1.600831429903461E-05</v>
@@ -33476,7 +33428,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K879">
         <v>1.600831429903461E-05</v>
@@ -33502,7 +33454,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K880">
         <v>1.600831429903461E-05</v>
@@ -33528,7 +33480,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K881">
         <v>1.131958759621277E-05</v>
@@ -33554,7 +33506,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K882">
         <v>6.774906416445152E-06</v>
@@ -33580,7 +33532,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K883">
         <v>3.94817124084361E-06</v>
@@ -33606,7 +33558,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K884">
         <v>3.94817124084361E-06</v>
@@ -33632,7 +33584,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K885">
         <v>0</v>
@@ -33658,7 +33610,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K886">
         <v>0</v>
@@ -33684,7 +33636,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K887">
         <v>0</v>
@@ -33710,7 +33662,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K888">
         <v>0</v>
@@ -33736,7 +33688,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K889">
         <v>0</v>
@@ -33762,7 +33714,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K890">
         <v>0</v>
@@ -33788,7 +33740,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K891">
         <v>0</v>
@@ -33814,7 +33766,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K892">
         <v>0</v>
@@ -33840,7 +33792,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K893">
         <v>0</v>
@@ -33866,7 +33818,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K894">
         <v>0</v>
@@ -33892,7 +33844,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K895">
         <v>0</v>
@@ -33918,7 +33870,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K896">
         <v>0</v>
@@ -33944,7 +33896,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K897">
         <v>0</v>
@@ -33970,7 +33922,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K898">
         <v>0</v>
@@ -33996,7 +33948,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K899">
         <v>0</v>
@@ -34022,7 +33974,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K900">
         <v>0</v>
@@ -34048,7 +34000,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K901">
         <v>0</v>
@@ -34074,7 +34026,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K902">
         <v>0</v>
@@ -34100,7 +34052,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K903">
         <v>0</v>
@@ -34126,7 +34078,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K904">
         <v>0</v>
